--- a/biology/Microbiologie/Nassula/Nassula.xlsx
+++ b/biology/Microbiologie/Nassula/Nassula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nassula est un genre de ciliés de la famille des Nassulidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (12 mars 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (12 mars 2020) :
 Nassula dragescoi Foissner &amp; al., 2002
 Nassula etoschensis Foissner &amp; al., 2002
 Nassula flava (Claparède &amp; Lachmann, 1859) Ehrenberg, 1834
@@ -522,7 +536,7 @@
 Nassula ornata Ehrenberg
 Nassula ougandae Dragesco, 1972
 Nassula tuberculata Foissner &amp; al., 2002
-Selon le Catalogue of Life                                   (12 mars 2020)[2] :
+Selon le Catalogue of Life                                   (12 mars 2020) :
 Nassula ambigua Stein, 1854
 Nassula argentula
 Nassula aureola
@@ -580,13 +594,13 @@
 Nassula versicolor André, 1916
 Nassula vesiculosa
 Nassula viridis Dujardin, 1841
-Selon l'ITIS      (12 mars 2020)[3] :
+Selon l'ITIS      (12 mars 2020) :
 Nassula aurea Ehr.
 Nassula gracilis Kahl
-Selon le NCBI  (12 mars 2020)[4] :
+Selon le NCBI  (12 mars 2020) :
 Nassula labiata Nassula halophila Gurwitsch, 1934
 Nassula variabilis Lynn, Kolisko &amp; Bourland 2018
-Selon le World Register of Marine Species                               (12 mars 2020)[5] :
+Selon le World Register of Marine Species                               (12 mars 2020) :
 Nassula argentula Kahl, 1930
 Nassula aurea Ehrenberg, 1833
 Nassula citrea Kahl, 1930
